--- a/Test.xlsx
+++ b/Test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\OneDrive\Skrivbord\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\source\repos\Exceltest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5504F639-3CCC-46BE-B6D1-996D27334AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620666A4-1959-4CDF-8146-DA246625B7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Test </t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>test2</t>
+  </si>
+  <si>
+    <t>Testnytt</t>
+  </si>
+  <si>
+    <t>Jag ligger på GIT</t>
   </si>
 </sst>
 </file>
@@ -360,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -388,6 +394,14 @@
         <v>#VALUE!</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\source\repos\Exceltest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gukro1\source\repos\Exceltest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620666A4-1959-4CDF-8146-DA246625B7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176E36AA-ABED-4D31-BE83-773EFDD53BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3650" yWindow="0" windowWidth="14400" windowHeight="9440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -45,10 +45,10 @@
     <t>test2</t>
   </si>
   <si>
-    <t>Testnytt</t>
+    <t>Jag ligger på GIT</t>
   </si>
   <si>
-    <t>Jag ligger på GIT</t>
+    <t>Jobbdator</t>
   </si>
 </sst>
 </file>
@@ -369,15 +369,15 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,18 +388,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="e">
         <f>B1+C1</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\source\repos\Exceltest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620666A4-1959-4CDF-8146-DA246625B7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEDB19D-46B4-49AB-97EE-055620630157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Test </t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Jag ligger på GIT</t>
+  </si>
+  <si>
+    <t>Noatest</t>
+  </si>
+  <si>
+    <t>Kalletest</t>
   </si>
 </sst>
 </file>
@@ -366,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,6 +408,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gukro1\source\repos\Exceltest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176E36AA-ABED-4D31-BE83-773EFDD53BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D521D542-6655-4E16-ACBC-160DF4DBC873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3650" yWindow="0" windowWidth="14400" windowHeight="9440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Test </t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Jobbdator</t>
+  </si>
+  <si>
+    <t>sdfasfda</t>
   </si>
 </sst>
 </file>
@@ -366,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -377,7 +380,7 @@
     <col min="1" max="1" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,14 +390,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="e">
         <f>B1+C1</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gukro1\source\repos\Exceltest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\source\repos\Exceltest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D521D542-6655-4E16-ACBC-160DF4DBC873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62643C13-611D-459F-985E-DEA910B50926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3650" yWindow="0" windowWidth="14400" windowHeight="9440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Test </t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>sdfasfda</t>
+  </si>
+  <si>
+    <t>testhemmadator</t>
   </si>
 </sst>
 </file>
@@ -369,18 +372,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,18 +397,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="e">
         <f>B1+C1</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gukro1\source\repos\Exceltest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D521D542-6655-4E16-ACBC-160DF4DBC873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EC6440-B856-4531-91F3-A8BE5503D2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3650" yWindow="0" windowWidth="14400" windowHeight="9440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t xml:space="preserve">Test </t>
   </si>
@@ -372,7 +372,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -407,6 +407,9 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\source\repos\Exceltest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62643C13-611D-459F-985E-DEA910B50926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB568A6-AC11-4657-8C36-5F4CDB3A9EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
